--- a/Performance_20250101.xlsx
+++ b/Performance_20250101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/menghan/Documents/PaperIdeas/Yining/water_transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AFEA09-3BA4-0746-988F-709E795365DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742A7F75-9B67-474C-AFD5-3345BE444B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="-28120" windowWidth="39540" windowHeight="25880" xr2:uid="{773DC8B7-C252-694E-94F4-594B4B2CBB52}"/>
+    <workbookView xWindow="20740" yWindow="-28300" windowWidth="39540" windowHeight="25880" activeTab="1" xr2:uid="{773DC8B7-C252-694E-94F4-594B4B2CBB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Eastern" sheetId="1" r:id="rId1"/>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212F6219-047C-134A-8547-629CC30498DE}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView zoomScale="167" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2181,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FD931-2D2D-1C4F-B410-2E2F2A138743}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="158" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="158" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
